--- a/system_development/Mithril/v0.2/Bill of Materials..xlsx
+++ b/system_development/Mithril/v0.2/Bill of Materials..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayhe\OneDrive\Documents\GitHub\In-situ-monitoring-of-powder-bed-fusion-additive-manufacturing\system_development\Mithril\v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA282938-409B-4404-9C0C-811FC40B17D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF5F707-EBA7-49B0-B31A-95AD7D499362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,10 +183,10 @@
     <t>https://www.grainger.com/product/Hex-Nut-M4-0-70-Thread-22UK82</t>
   </si>
   <si>
-    <t>https://www.grainger.com/product/JW-WINCO-Pull-Handle-Threaded-Holes-813RA6</t>
-  </si>
-  <si>
     <t>Pull Handle</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/JW-WINCO-Pull-Handle-Unthreaded-Holes-813RC8</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,13 +877,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
